--- a/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.ja.xlsx
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>適切な仮想マシン インスタンスの種類を選択することは、AKS でアプリケーションを実行するコストに直接影響するため、非常に重要です。適切な使用率を欠いて高パフォーマンスのインスタンスを選択すると、無駄な支出につながる可能性があり、強力なインスタンスを選択すると、パフォーマンスの問題やダウンタイムの増加につながる可能性があります。適切な仮想マシンインスタンスタイプを決定するには、ワークロードの特性、リソース要件、および可用性のニーズを考慮します。</t>
+          <t>適切な仮想マシン インスタンスの種類を選択することは、AKS でアプリケーションを実行するコストに直接影響するため、非常に重要です。適切な使用率を欠いて高パフォーマンスのインスタンスを選択すると、無駄な支出につながる可能性があり、パフォーマンスの低いインスタンスを選択すると、パフォーマンスの問題やダウンタイムの増加につながる可能性があります。適切な仮想マシンインスタンスタイプを決定するには、ワークロードの特性、リソース要件、および可用性のニーズを考慮します。</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>

--- a/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.ja.xlsx
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: Container insights を使用してクラスターの監視を構成します。</t>
+          <t>クラスターのアーキテクチャ: 可用性ゾーンを使用して、AKS エージェント ノードを物理的に分離されたデータ センターに分散することで、Azure リージョン内の回復性を最大化します。</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>コンテナの分析情報は、Metrics API を介して Kubernetes で使用できるコントローラー、ノード、およびコンテナの正常性とパフォーマンスを監視するのに役立ちます。Prometheus との統合により、アプリケーションとワークロードのメトリクスを収集できます。</t>
+          <t>ノードプールを複数のゾーンに分散させることで、1つのノードプール内のノードは、別のゾーンがダウンしても実行を続けます。コローカリティ要件が存在する場合は、1 つのゾーンへの通常の VMSS ベースの AKS デプロイまたは近接配置グループを使用して、ノード間の待機時間を最小限に抑えることができます。</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>76d86a61-446d-4597-a547-9ba4d9c25377</t>
+          <t>29400c1f-e4ff-4ab5-89ff-be93d51d5fa8</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 可用性ゾーンを使用して、AKS エージェント ノードを物理的に分離されたデータ センターに分散することで、Azure リージョン内の回復性を最大化します。</t>
+          <t>クラスターのアーキテクチャ: 異なる Azure リージョンにデプロイされた AKS クラスターをデプロイすることで、マルチリージョン戦略を採用して、可用性を最大化し、ビジネス継続性を提供します。</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>ノードプールを複数のゾーンに分散させることで、1つのノードプール内のノードは、別のゾーンがダウンしても実行を続けます。コローカリティ要件が存在する場合は、1 つのゾーンへの通常の VMSS ベースの AKS デプロイまたは近接配置グループを使用して、ノード間の待機時間を最小限に抑えることができます。</t>
+          <t>インターネットに接続するワークロードでは、Azure Front Door または Azure Traffic Manager を利用して、AKS クラスター間でトラフィックをグローバルにルーティングする必要があります。</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1218,7 +1218,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>29400c1f-e4ff-4ab5-89ff-be93d51d5fa8</t>
+          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 異なる Azure リージョンにデプロイされた AKS クラスターをデプロイすることで、マルチリージョン戦略を採用して、可用性を最大化し、ビジネス継続性を提供します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: ポッド リソースの要求と制限をアプリケーションのデプロイ マニフェストで定義し、Azure Policy を使用して適用します。</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>インターネットに接続するワークロードでは、Azure Front Door または Azure Traffic Manager を利用して、AKS クラスター間でトラフィックをグローバルにルーティングする必要があります。</t>
+          <t>コンテナの CPU とメモリのリソース制限は、Kubernetes クラスタのリソース枯渇を防ぐために必要です。</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1252,7 +1252,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
+          <t>f230e754-6818-4428-b2ad-7ad543723f80</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: ポッド リソースの要求と制限をアプリケーションのデプロイ マニフェストで定義し、Azure Policy を使用して適用します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: システム ノード プールをアプリケーション ワークロードから分離します。</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>コンテナの CPU とメモリのリソース制限は、Kubernetes クラスタのリソース枯渇を防ぐために必要です。</t>
+          <t>システム ノード プールには、少なくとも 2 つの vCPU と 4 GB のメモリの VM SKU が必要ですが、4 つ以上の vCPU をお勧めします。詳細な要件については、システムおよびユーザーノードプールを参照してください。</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1286,7 +1286,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>f230e754-6818-4428-b2ad-7ad543723f80</t>
+          <t>f51b6cdd-3914-4e11-a8e8-f2cf61788e84</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: システム ノード プールをアプリケーション ワークロードから分離します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: 特定の要件に基づいて、アプリケーションを専用のノード プールに分離します。</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>システム ノード プールには、少なくとも 2 つの vCPU と 4 GB のメモリの VM SKU が必要ですが、4 つ以上の vCPU をお勧めします。詳細な要件については、システムおよびユーザーノードプールを参照してください。</t>
+          <t>アプリケーションは同じ構成を共有し、GPU 対応 VM、CPU またはメモリ最適化 VM、またはゼロへのスケーリング機能が必要な場合があります。ノードプールの数が多くならないようにして、余分な管理オーバーヘッドを削減します。</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>f51b6cdd-3914-4e11-a8e8-f2cf61788e84</t>
+          <t>e303e4a0-0b81-47bd-bd44-bede44825fa2</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: 特定の要件に基づいて、アプリケーションを専用のノード プールに分離します。</t>
+          <t>クラスターのアーキテクチャ: NAT ゲートウェイは、多数の同時送信接続を行うワークロードを実行するクラスターに使用します。</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションは同じ構成を共有し、GPU 対応 VM、CPU またはメモリ最適化 VM、またはゼロへのスケーリング機能が必要な場合があります。ノードプールの数が多くならないようにして、余分な管理オーバーヘッドを削減します。</t>
+          <t>Azure Load Balancer の制限による信頼性の問題を回避するために、同時送信トラフィックが多い場合は、代わりに NAT ゲートウェイを使用して、信頼性の高いエグレス トラフィックを大規模にサポートします。</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1354,7 +1354,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>e303e4a0-0b81-47bd-bd44-bede44825fa2</t>
+          <t>ff84fa04-ee66-4605-85f3-803dd2cab3c4</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: NAT ゲートウェイは、多数の同時送信接続を行うワークロードを実行するクラスターに使用します。</t>
+          <t>クラスターのアーキテクチャ: Microsoft Entra 統合を使用します。</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer の制限による信頼性の問題を回避するために、同時送信トラフィックが多い場合は、代わりに NAT ゲートウェイを使用して、信頼性の高いエグレス トラフィックを大規模にサポートします。</t>
+          <t>Microsoft Entra ID を使用すると、ID 管理コンポーネントが一元化されます。ユーザー アカウントまたはグループの状態を変更すると、AKS クラスターへのアクセスで自動的に更新されます。Kubernetes クラスターの開発者とアプリケーション所有者は、さまざまなリソースにアクセスする必要があります。</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1388,7 +1388,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>ff84fa04-ee66-4605-85f3-803dd2cab3c4</t>
+          <t>03a24546-1e4a-46d6-ad0c-63e80d157b51</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Microsoft Entra 統合を使用します。</t>
+          <t>クラスターのアーキテクチャ: Microsoft Entra ID を使用して Azure Container Registry に認証します。</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID を使用すると、ID 管理コンポーネントが一元化されます。ユーザー アカウントまたはグループの状態を変更すると、AKS クラスターへのアクセスで自動的に更新されます。Kubernetes クラスターの開発者とアプリケーション所有者は、さまざまなリソースにアクセスする必要があります。</t>
+          <t>AKS と Microsoft Entra ID を使用すると、'imagePullSecrets' シークレットを使用せずに Azure Container Registry による認証が可能になります。詳細については、「Azure Kubernetes Service から Azure Container Registry を使用した認証」を参照してください。</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>03a24546-1e4a-46d6-ad0c-63e80d157b51</t>
+          <t>dc50fb2f-f5e9-4ea2-a1b8-36fbf1e1bec4</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1435,12 +1435,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Microsoft Entra ID を使用して Azure Container Registry に認証します。</t>
+          <t>クラスターのアーキテクチャ: プライベート AKS クラスターを使用して、API サーバーへのネットワーク トラフィックをセキュリティで保護します。</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>AKS と Microsoft Entra ID を使用すると、'imagePullSecrets' シークレットを使用せずに Azure Container Registry による認証が可能になります。詳細については、「Azure Kubernetes Service から Azure Container Registry を使用した認証」を参照してください。</t>
+          <t>デフォルトでは、ノード プールと API サーバー間のネットワーク トラフィックは、Microsoft のバックボーン ネットワークを移動します。プライベートクラスターを使用すると、API サーバーへのネットワークトラフィックがプライベートネットワーク上にのみ留まるようにすることができます。</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>dc50fb2f-f5e9-4ea2-a1b8-36fbf1e1bec4</t>
+          <t>3d11d647-363f-469c-bea9-9ef27a9bee70</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: プライベート AKS クラスターを使用して、API サーバーへのネットワーク トラフィックをセキュリティで保護します。</t>
+          <t>クラスターのアーキテクチャ: プライベートでない AKS クラスターの場合は、API サーバーによって承認された IP 範囲を使用します。</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>デフォルトでは、ノード プールと API サーバー間のネットワーク トラフィックは、Microsoft のバックボーン ネットワークを移動します。プライベートクラスターを使用すると、API サーバーへのネットワークトラフィックがプライベートネットワーク上にのみ留まるようにすることができます。</t>
+          <t>公開クラスターを使用する場合でも、許可された IP 範囲機能を使用して、クラスター API サーバーに到達できるトラフィックを制限できます。デプロイ ビルド エージェントのパブリック IP、運用管理、ノード プールのエグレス ポイント (Azure Firewall など) などのソースを含めます。</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>3d11d647-363f-469c-bea9-9ef27a9bee70</t>
+          <t>0418c965-c483-41bc-933c-9289108b8ad0</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: プライベートでない AKS クラスターの場合は、API サーバーによって承認された IP 範囲を使用します。</t>
+          <t>クラスター アーキテクチャ: Microsoft Entra RBAC を使用して API サーバーを保護します。</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>公開クラスターを使用する場合でも、許可された IP 範囲機能を使用して、クラスター API サーバーに到達できるトラフィックを制限できます。デプロイ ビルド エージェントのパブリック IP、運用管理、ノード プールのエグレス ポイント (Azure Firewall など) などのソースを含めます。</t>
+          <t>Kubernetes APIサーバーへのアクセスを保護することは、クラスターを保護するために実行できる最も重要なことの1つです。Kubernetes のロールベースのアクセス制御 (RBAC) を Microsoft Entra ID と統合して、API サーバーへのアクセスを制御します。ローカル アカウントを無効にして、Microsoft Entra ID ベースの ID を使用してすべてのクラスター アクセスを強制します。</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>0418c965-c483-41bc-933c-9289108b8ad0</t>
+          <t>951727b0-fd7b-4d09-8ae6-384f8441c234</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>クラスター アーキテクチャ: Microsoft Entra RBAC を使用して API サーバーを保護します。</t>
+          <t>クラスターのアーキテクチャ: Azure ネットワーク ポリシーまたは Calico を使用します。</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Kubernetes APIサーバーへのアクセスを保護することは、クラスターを保護するために実行できる最も重要なことの1つです。Kubernetes のロールベースのアクセス制御 (RBAC) を Microsoft Entra ID と統合して、API サーバーへのアクセスを制御します。ローカル アカウントを無効にして、Microsoft Entra ID ベースの ID を使用してすべてのクラスター アクセスを強制します。</t>
+          <t>クラスター内のポッド間のネットワーク トラフィックを保護および制御します。</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1558,7 +1558,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>951727b0-fd7b-4d09-8ae6-384f8441c234</t>
+          <t>68a66542-3c31-43c4-8a16-a05ab2a4df5f</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Azure ネットワーク ポリシーまたは Calico を使用します。</t>
+          <t>クラスターのアーキテクチャ: Azure Policy を使用してクラスターとポッドをセキュリティで保護します。</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>クラスター内のポッド間のネットワーク トラフィックを保護および制御します。</t>
+          <t>Azure Policy は、一元化された一貫した方法で、クラスターに大規模な適用と保護を適用するのに役立ちます。また、ポッドに付与される機能や、会社のポリシーに対して実行されているものがあるかどうかも制御できます。</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>68a66542-3c31-43c4-8a16-a05ab2a4df5f</t>
+          <t>c99d155b-6a13-4f61-8672-356b1ed3a922</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Azure Policy を使用してクラスターとポッドをセキュリティで保護します。</t>
+          <t>クラスターのアーキテクチャ: リソースへのコンテナー アクセスをセキュリティで保護します。</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy は、一元化された一貫した方法で、クラスターに大規模な適用と保護を適用するのに役立ちます。また、ポッドに付与される機能や、会社のポリシーに対して実行されているものがあるかどうかも制御できます。</t>
+          <t>コンテナが実行できるアクションへのアクセスを制限します。最小限の権限を付与し、ルートまたは特権エスカレーションの使用を避けます。</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>c99d155b-6a13-4f61-8672-356b1ed3a922</t>
+          <t>43384eb1-7b95-44aa-9c60-e09652b18521</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: リソースへのコンテナー アクセスをセキュリティで保護します。</t>
+          <t>ワークロードのアーキテクチャ: Web Application Firewall を使用して HTTP(S) トラフィックをセキュリティで保護します。</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>コンテナが実行できるアクションへのアクセスを制限します。最小限の権限を付与し、ルートまたは特権エスカレーションの使用を避けます。</t>
+          <t>受信トラフィックをスキャンして潜在的な攻撃を検出するには、Azure Application Gateway または Azure Front Door 上の Azure Web Application Firewall (WAF) などの Web アプリケーション ファイアウォールを使用します。</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1660,7 +1660,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>43384eb1-7b95-44aa-9c60-e09652b18521</t>
+          <t>ae6a3199-847d-4901-bad1-63be20d584b8</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Web Application Firewall を使用して HTTP(S) トラフィックをセキュリティで保護します。</t>
+          <t>クラスターのアーキテクチャ: クラスターのエグレス トラフィックを制御します。</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>受信トラフィックをスキャンして潜在的な攻撃を検出するには、Azure Application Gateway または Azure Front Door 上の Azure Web Application Firewall (WAF) などの Web アプリケーション ファイアウォールを使用します。</t>
+          <t>クラスターの送信トラフィックが、Azure Firewall や HTTP プロキシなどのネットワーク セキュリティ ポイントを通過していることを確認します。</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1694,7 +1694,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>ae6a3199-847d-4901-bad1-63be20d584b8</t>
+          <t>d67db716-6569-4a40-b18f-01052c02399f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: クラスターのエグレス トラフィックを制御します。</t>
+          <t>クラスター アーキテクチャ: オープンソースの Microsoft Entra ワークロード ID とシークレット ストア CSI ドライバーを Azure Key Vault と共に使用します。</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>クラスターの送信トラフィックが、Azure Firewall や HTTP プロキシなどのネットワーク セキュリティ ポイントを通過していることを確認します。</t>
+          <t>Azure Key Vault のシークレット、証明書、接続文字列を強力な暗号化で保護し、ローテーションします。アクセス監査ログを提供し、コアシークレットをデプロイメントパイプラインから保持します。</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1727,7 +1727,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>d67db716-6569-4a40-b18f-01052c02399f</t>
+          <t>bc5240f0-9c6d-469e-bf71-9f8d4bf18c29</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>クラスター アーキテクチャ: オープンソースの Microsoft Entra ワークロード ID とシークレット ストア CSI ドライバーを Azure Key Vault と共に使用します。</t>
+          <t>クラスターのアーキテクチャ: Microsoft Defender for Containers を使用します。</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault のシークレット、証明書、接続文字列を強力な暗号化で保護し、ローテーションします。アクセス監査ログを提供し、コアシークレットをデプロイメントパイプラインから保持します。</t>
+          <t>クラスター、コンテナ、およびそれらのアプリケーションのセキュリティを監視および維持します。</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1760,7 +1760,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>bc5240f0-9c6d-469e-bf71-9f8d4bf18c29</t>
+          <t>2ac2d30a-a96a-4d14-b63d-7e2e3147ea9e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Microsoft Defender for Containers を使用します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: SKU の選択とマネージド ディスクのサイズをワークロードの要件に合わせて調整します。</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>クラスター、コンテナ、およびそれらのアプリケーションのセキュリティを監視および維持します。</t>
+          <t>ワークロードの要求に合わせて選択することで、不要なリソースにお金を払う必要がなくなります。</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1793,7 +1793,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>2ac2d30a-a96a-4d14-b63d-7e2e3147ea9e</t>
+          <t>93a3ae7a-6f04-471b-bb3f-5eb4e6664c5b</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1806,12 +1806,12 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: SKU の選択とマネージド ディスクのサイズをワークロードの要件に合わせて調整します。</t>
+          <t>クラスターのアーキテクチャ: 適切な仮想マシン インスタンスの種類を選択します。</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>ワークロードの要求に合わせて選択することで、不要なリソースにお金を払う必要がなくなります。</t>
+          <t>適切な仮想マシン インスタンスの種類を選択することは、AKS でアプリケーションを実行するコストに直接影響するため、非常に重要です。適切な使用率を欠いて高パフォーマンスのインスタンスを選択すると、無駄な支出につながる可能性があり、パフォーマンスの低いインスタンスを選択すると、パフォーマンスの問題やダウンタイムの増加につながる可能性があります。適切な仮想マシンインスタンスタイプを決定するには、ワークロードの特性、リソース要件、および可用性のニーズを考慮します。</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1826,7 +1826,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>93a3ae7a-6f04-471b-bb3f-5eb4e6664c5b</t>
+          <t>f16a2684-c225-4fd5-8202-8ea1db7f18e7</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 適切な仮想マシン インスタンスの種類を選択します。</t>
+          <t>クラスター アーキテクチャ: Arm アーキテクチャに基づいて仮想マシンを選択します。</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>適切な仮想マシン インスタンスの種類を選択することは、AKS でアプリケーションを実行するコストに直接影響するため、非常に重要です。適切な使用率を欠いて高パフォーマンスのインスタンスを選択すると、無駄な支出につながる可能性があり、パフォーマンスの低いインスタンスを選択すると、パフォーマンスの問題やダウンタイムの増加につながる可能性があります。適切な仮想マシンインスタンスタイプを決定するには、ワークロードの特性、リソース要件、および可用性のニーズを考慮します。</t>
+          <t>AKS では、ARM64 Ubuntu エージェント ノードの作成と、クラスター内の Intel アーキテクチャと ARM アーキテクチャ ノードの組み合わせの作成がサポートされており、低コストでパフォーマンスを向上させることができます。</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1859,7 +1859,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>f16a2684-c225-4fd5-8202-8ea1db7f18e7</t>
+          <t>f0572fdc-24e3-4e6c-8c90-0ba85cc6f52a</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>クラスター アーキテクチャ: Arm アーキテクチャに基づいて仮想マシンを選択します。</t>
+          <t>クラスターのアーキテクチャ: [Azure Spot Virtual Machines] を選択します。</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>AKS では、ARM64 Ubuntu エージェント ノードの作成と、クラスター内の Intel アーキテクチャと ARM アーキテクチャ ノードの組み合わせの作成がサポートされており、低コストでパフォーマンスを向上させることができます。</t>
+          <t>スポット VM を使用すると、未使用の Azure 容量を大幅な割引 (従量課金制と比較して最大 90%) で利用できます。Azure で容量を戻す必要がある場合、Azure インフラストラクチャはスポット ノードを削除します。</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f0572fdc-24e3-4e6c-8c90-0ba85cc6f52a</t>
+          <t>15372689-94ad-4247-a157-fde418217ce4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: [Azure Spot Virtual Machines] を選択します。</t>
+          <t>クラスターのアーキテクチャ: 適切なリージョンを選択します。</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>スポット VM を使用すると、未使用の Azure 容量を大幅な割引 (従量課金制と比較して最大 90%) で利用できます。Azure で容量を戻す必要がある場合、Azure インフラストラクチャはスポット ノードを削除します。</t>
+          <t>多くの要因により、リソースのコストは Azure のリージョンごとに異なります。コスト、レイテンシ、コンプライアンスの要件を評価して、ワークロードをコスト効率よく実行し、エンドユーザーに影響を与えたり、追加のネットワーク料金が発生したりしないようにします。</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1927,7 +1927,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>15372689-94ad-4247-a157-fde418217ce4</t>
+          <t>41a6e1ef-d63a-4e26-842f-1a0cde3abaa6</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -1940,12 +1940,12 @@
       <c r="B34" s="21" t="n"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 適切なリージョンを選択します。</t>
+          <t>ワークロードのアーキテクチャ: 小さく最適化されたイメージを維持します。</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>多くの要因により、リソースのコストは Azure のリージョンごとに異なります。コスト、レイテンシ、コンプライアンスの要件を評価して、ワークロードをコスト効率よく実行し、エンドユーザーに影響を与えたり、追加のネットワーク料金が発生したりしないようにします。</t>
+          <t>イメージを合理化すると、新しいノードがこれらのイメージをダウンロードする必要があるため、コストを削減できます。コンテナをできるだけ早く起動できるようにイメージをビルドすると、アプリケーションの起動中にユーザーリクエストの失敗やタイムアウトが発生し、オーバープロビジョニングにつながる可能性を回避できます。</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1961,7 +1961,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>41a6e1ef-d63a-4e26-842f-1a0cde3abaa6</t>
+          <t>e689c267-1eaa-444d-806e-c5a0735658de</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -1974,12 +1974,12 @@
       <c r="B35" s="21" t="n"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: 小さく最適化されたイメージを維持します。</t>
+          <t>クラスターのアーキテクチャ: Cluster Autoscaler を有効にして、過剰なリソース容量に対応してエージェント ノードの数を自動的に減らします。</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>イメージを合理化すると、新しいノードがこれらのイメージをダウンロードする必要があるため、コストを削減できます。コンテナをできるだけ早く起動できるようにイメージをビルドすると、アプリケーションの起動中にユーザーリクエストの失敗やタイムアウトが発生し、オーバープロビジョニングにつながる可能性を回避できます。</t>
+          <t>AKS クラスター内のノード数を自動的にスケールダウンすると、需要が少ないときに効率的なクラスターを実行し、需要が戻ったときにスケールアップできます。</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -1995,7 +1995,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>e689c267-1eaa-444d-806e-c5a0735658de</t>
+          <t>e770ea75-690d-4dc0-a0e4-43c17b6bb56f</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2008,12 +2008,12 @@
       <c r="B36" s="21" t="n"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Cluster Autoscaler を有効にして、過剰なリソース容量に対応してエージェント ノードの数を自動的に減らします。</t>
+          <t>クラスターのアーキテクチャ: ノードの自動プロビジョニングを有効にして、VM SKU の選択を自動化します。</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>AKS クラスター内のノード数を自動的にスケールダウンすると、需要が少ないときに効率的なクラスターを実行し、需要が戻ったときにスケールアップできます。</t>
+          <t>ノード自動プロビジョニングは、SKU の選択プロセスを簡素化し、保留中のポッド リソース要件に基づいて、最も効率的でコスト効率の高い方法でワークロードを実行するための最適な VM 構成を決定します。</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
@@ -2029,7 +2029,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>e770ea75-690d-4dc0-a0e4-43c17b6bb56f</t>
+          <t>9994ccff-d3d4-46e3-92cb-d04231859e20</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2042,12 +2042,12 @@
       <c r="B37" s="21" t="n"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: ノードの自動プロビジョニングを有効にして、VM SKU の選択を自動化します。</t>
+          <t>ワークロードのアーキテクチャ: Horizontal Pod Autoscaler を使用します。</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>ノード自動プロビジョニングは、SKU の選択プロセスを簡素化し、保留中のポッド リソース要件に基づいて、最も効率的でコスト効率の高い方法でワークロードを実行するための最適な VM 構成を決定します。</t>
+          <t>デプロイ内のポッドの数は、CPU 使用率やその他の選択メトリクス (クラスターのスケールイン操作をサポートする) に応じて調整します。</t>
         </is>
       </c>
       <c r="E37" s="21" t="n"/>
@@ -2063,7 +2063,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>9994ccff-d3d4-46e3-92cb-d04231859e20</t>
+          <t>1321c176-e53a-4451-91cf-e4e50c637d07</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2076,12 +2076,12 @@
       <c r="B38" s="21" t="n"/>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Horizontal Pod Autoscaler を使用します。</t>
+          <t>ワークロードのアーキテクチャ: Vertical Pod Autoscaler (プレビュー) を使用します。</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>デプロイ内のポッドの数は、CPU 使用率やその他の選択メトリクス (クラスターのスケールイン操作をサポートする) に応じて調整します。</t>
+          <t>ポッドのサイズを適正化し、過去の使用状況に基づいてリクエストと制限を動的に設定します。</t>
         </is>
       </c>
       <c r="E38" s="21" t="n"/>
@@ -2097,7 +2097,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>1321c176-e53a-4451-91cf-e4e50c637d07</t>
+          <t>554e18fe-b835-4e78-8d27-6f49999855ad</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2110,12 +2110,12 @@
       <c r="B39" s="21" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Vertical Pod Autoscaler (プレビュー) を使用します。</t>
+          <t>ワークロードのアーキテクチャ: Kubernetes イベント駆動型自動スケーリング (KEDA) を使用します。</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>ポッドのサイズを適正化し、過去の使用状況に基づいてリクエストと制限を動的に設定します。</t>
+          <t>処理中のイベントの数に基づいてスケーリングします。50+ KEDAスケーラーの豊富なカタログからお選びください。</t>
         </is>
       </c>
       <c r="E39" s="21" t="n"/>
@@ -2131,7 +2131,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>554e18fe-b835-4e78-8d27-6f49999855ad</t>
+          <t>fe15f362-a48d-4a25-aa3e-7938b3d1f5e2</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2144,12 +2144,12 @@
       <c r="B40" s="21" t="n"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Kubernetes イベント駆動型自動スケーリング (KEDA) を使用します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: クラウドの財務規律と文化的な実践を採用して、クラウドの使用の所有権を促進します。</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>処理中のイベントの数に基づいてスケーリングします。50+ KEDAスケーラーの豊富なカタログからお選びください。</t>
+          <t>コスト最適化を可能にするための基盤は、コスト削減クラスターの普及です。財務運用アプローチ(FinOps)は、組織がクラウドのコストを削減するためによく使用されます。これは、財務、運用、エンジニアリングの各チームが協力して、コスト削減目標の調整を推進し、クラウドコストに透明性をもたらすための手法です。</t>
         </is>
       </c>
       <c r="E40" s="21" t="n"/>
@@ -2165,7 +2165,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>fe15f362-a48d-4a25-aa3e-7938b3d1f5e2</t>
+          <t>d0ed8b85-2072-4952-a00c-697135e435a2</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2178,12 +2178,12 @@
       <c r="B41" s="21" t="n"/>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: クラウドの財務規律と文化的な実践を採用して、クラウドの使用の所有権を促進します。</t>
+          <t>クラスターのアーキテクチャ: Azure Reservations または Azure Savings Plan にサインアップします。</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>コスト最適化を可能にするための基盤は、コスト削減クラスターの普及です。財務運用アプローチ(FinOps)は、組織がクラウドのコストを削減するためによく使用されます。これは、財務、運用、エンジニアリングの各チームが協力して、コスト削減目標の調整を推進し、クラウドコストに透明性をもたらすための手法です。</t>
+          <t>容量を適切に計画し、ワークロードが予測可能で、長期間存在する場合は、Azure 予約または節約プランにサインアップして、リソース コストをさらに削減します。</t>
         </is>
       </c>
       <c r="E41" s="21" t="n"/>
@@ -2199,7 +2199,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>d0ed8b85-2072-4952-a00c-697135e435a2</t>
+          <t>9d4b8d27-c793-4862-94c8-c2505205f07f</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2212,12 +2212,12 @@
       <c r="B42" s="21" t="n"/>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Azure Reservations または Azure Savings Plan にサインアップします。</t>
+          <t>クラスターのアーキテクチャ: AKS Cost Analysis アドオンを構成します。</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>容量を適切に計画し、ワークロードが予測可能で、長期間存在する場合は、Azure 予約または節約プランにサインアップして、リソース コストをさらに削減します。</t>
+          <t>コスト分析クラスター拡張機能を使用すると、クラスターまたは名前空間内のさまざまな Kubernetes リソースに関連するコストに関する詳細な分析情報を取得できます。</t>
         </is>
       </c>
       <c r="E42" s="21" t="n"/>
@@ -2233,7 +2233,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>9d4b8d27-c793-4862-94c8-c2505205f07f</t>
+          <t>43cae555-15bd-4cd7-90b9-905d40528506</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2246,12 +2246,12 @@
       <c r="B43" s="21" t="n"/>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Container insights を使用してクラスターの監視を構成します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: AKS のベスト プラクティスに関するドキュメントを確認します。</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Container insights は、クラスターのアイドル状態と未割り当てのリソースに関する実用的な分析情報を提供します。Container insights は、Prometheus メトリックの収集もサポートし、Azure Managed Grafana と統合して、アプリケーションとインフラストラクチャの全体像を把握します。</t>
+          <t>AKS でアプリケーションを正常にビルドして実行するには、理解して実装する必要がある重要な考慮事項があります。これらの領域には、マルチテナンシーとスケジューラ機能、クラスタとポッドのセキュリティ、またはビジネス継続性とディザスタリカバリが含まれます。</t>
         </is>
       </c>
       <c r="E43" s="21" t="n"/>
@@ -2267,7 +2267,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>f4113186-82e7-495e-90e8-0da553de3039</t>
+          <t>4ea51e35-26bb-4a2b-a7ca-435eb6d857b9</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2280,12 +2280,12 @@
       <c r="B44" s="21" t="n"/>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: AKS Cost Analysis アドオンを構成します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: Azure Chaos Studio を確認します。</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>コスト分析クラスター拡張機能を使用すると、クラスターまたは名前空間内のさまざまな Kubernetes リソースに関連するコストに関する詳細な分析情報を取得できます。</t>
+          <t>Azure Chaos Studio は、障害をシミュレートし、ディザスター リカバリー状況をトリガーするのに役立ちます。</t>
         </is>
       </c>
       <c r="E44" s="21" t="n"/>
@@ -2301,7 +2301,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>43cae555-15bd-4cd7-90b9-905d40528506</t>
+          <t>d38b720a-0b27-409f-9dfa-28f698067a19</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2314,12 +2314,12 @@
       <c r="B45" s="21" t="n"/>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: AKS のベスト プラクティスに関するドキュメントを確認します。</t>
+          <t>クラスターのアーキテクチャ: 異なる Azure リージョンにデプロイされた AKS クラスターをデプロイすることで、マルチリージョン戦略を採用して、可用性を最大化し、ビジネス継続性を提供します。</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>AKS でアプリケーションを正常にビルドして実行するには、理解して実装する必要がある重要な考慮事項があります。これらの領域には、マルチテナンシーとスケジューラ機能、クラスタとポッドのセキュリティ、またはビジネス継続性とディザスタリカバリが含まれます。</t>
+          <t>インターネットに接続するワークロードでは、Azure Front Door または Azure Traffic Manager を利用して、AKS クラスター間でトラフィックをグローバルにルーティングする必要があります。</t>
         </is>
       </c>
       <c r="E45" s="21" t="n"/>
@@ -2334,7 +2334,7 @@
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>4ea51e35-26bb-4a2b-a7ca-435eb6d857b9</t>
+          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2347,12 +2347,12 @@
       <c r="B46" s="21" t="n"/>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: Azure Chaos Studio を確認します。</t>
+          <t>クラスターのアーキテクチャ: Azure Policy を使用して、クラスターとポッドの構成標準を運用可能にします。</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>Azure Chaos Studio は、障害をシミュレートし、ディザスター リカバリー状況をトリガーするのに役立ちます。</t>
+          <t>Azure Policy は、一元化された一貫した方法で、クラスターに大規模な適用と保護を適用するのに役立ちます。また、ポッドに付与される機能や、会社のポリシーに対して実行されているものがあるかどうかも制御できます。</t>
         </is>
       </c>
       <c r="E46" s="21" t="n"/>
@@ -2368,7 +2368,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>d38b720a-0b27-409f-9dfa-28f698067a19</t>
+          <t>4fa55d17-b08b-4885-8d5b-d8cfbe3eda59</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2381,12 +2381,12 @@
       <c r="B47" s="21" t="n"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: Container insights を使用してクラスターの監視を構成します。</t>
+          <t>ワークロードのアーキテクチャ: リリースエンジニアリングプロセスでプラットフォーム機能を使用します。</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>Container insights は、Metrics API とコンテナ ログを通じて Kubernetes で使用可能なコントローラー、ノード、およびコンテナからメモリとプロセッサのメトリクスを収集することで、コンテナのパフォーマンスを監視するのに役立ちます。</t>
+          <t>KubernetesとIngressコントローラーは、リリースエンジニアリングプロセスに含めるための多くの高度なデプロイパターンをサポートしています。ブルーグリーンデプロイやカナリアリリースなどのパターンを考えてみましょう。</t>
         </is>
       </c>
       <c r="E47" s="21" t="n"/>
@@ -2402,7 +2402,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>76d86a61-446d-4597-a547-9ba4d9c25377</t>
+          <t>40bf5a02-ca6a-410d-9b6a-87fe75ff0873</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2415,12 +2415,12 @@
       <c r="B48" s="21" t="n"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Azure Monitor を使用してアプリケーションのパフォーマンスを監視します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: ミッションクリティカルなワークロードの場合は、スタンプレベルのブルー/グリーンデプロイを使用します。</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>AKS クラスターで実行されているアプリケーションのコードベースの監視のために Application Insights を構成します。</t>
+          <t>デプロイメントやテストなど、ミッションクリティカルな設計領域を自動化します。</t>
         </is>
       </c>
       <c r="E48" s="21" t="n"/>
@@ -2435,7 +2435,7 @@
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>b7c8f991-0c99-4f2e-8ed9-1b0bcffc2b42</t>
+          <t>dec76a46-6005-4c3e-ac2c-70b7214a28ba</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2448,12 +2448,12 @@
       <c r="B49" s="21" t="n"/>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Container insights を使用して Prometheus メトリックのスクレイピングを構成します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: 詳細な容量計画を作成し、継続的に見直して改訂します。</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor の一部であるコンテナー分析情報は、Prometheus メトリックを収集するためのシームレスなオンボード エクスペリエンスを提供します。詳細については、「Prometheus メトリックのスクレイピングの設定」を参照してください。</t>
+          <t>容量計画を形式化した後は、クラスターのリソース使用率を継続的に観察して、容量計画を頻繁に更新する必要があります。</t>
         </is>
       </c>
       <c r="E49" s="21" t="n"/>
@@ -2468,7 +2468,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>959a2059-d560-4f51-8f9a-c68b0a595beb</t>
+          <t>9f2cef22-f674-4702-a57a-5dcf90bf9143</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2481,12 +2481,12 @@
       <c r="B50" s="21" t="n"/>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 異なる Azure リージョンにデプロイされた AKS クラスターをデプロイすることで、マルチリージョン戦略を採用して、可用性を最大化し、ビジネス継続性を提供します。</t>
+          <t>クラスターのアーキテクチャ: クラスター オートスケーラーを有効にして、リソースの制約に応じてエージェント ノードの数を自動的に調整します。</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>インターネットに接続するワークロードでは、Azure Front Door または Azure Traffic Manager を利用して、AKS クラスター間でトラフィックをグローバルにルーティングする必要があります。</t>
+          <t>AKS クラスター内のノード数を自動的にスケールアップまたはスケールダウンする機能により、効率的でコスト効率の高いクラスターを実行できます。</t>
         </is>
       </c>
       <c r="E50" s="21" t="n"/>
@@ -2502,7 +2502,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
+          <t>d50d653b-0d8d-44ca-8ba6-9963321d1f24</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2515,12 +2515,12 @@
       <c r="B51" s="21" t="n"/>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Azure Policy を使用して、クラスターとポッドの構成標準を運用可能にします。</t>
+          <t>クラスターとワークロードのアーキテクチャ: ワークロードを異なるノードプールに分割し、ユーザーノードプールのスケーリングを検討します。</t>
         </is>
       </c>
       <c r="D51" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy は、一元化された一貫した方法で、クラスターに大規模な適用と保護を適用するのに役立ちます。また、ポッドに付与される機能や、会社のポリシーに対して実行されているものがあるかどうかも制御できます。</t>
+          <t>常に実行中のノードを必要とするシステムノードプールとは異なり、ユーザーノードプールではスケールアップまたはスケールダウンできます。</t>
         </is>
       </c>
       <c r="E51" s="21" t="n"/>
@@ -2536,7 +2536,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>4fa55d17-b08b-4885-8d5b-d8cfbe3eda59</t>
+          <t>cd14e737-9478-4fb4-9556-586b03d5e248</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2549,12 +2549,12 @@
       <c r="B52" s="21" t="n"/>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: リリースエンジニアリングプロセスでプラットフォーム機能を使用します。</t>
+          <t>ワークロード アーキテクチャ: AKS の高度なスケジューラ機能を使用します。</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>KubernetesとIngressコントローラーは、リリースエンジニアリングプロセスに含めるための多くの高度なデプロイパターンをサポートしています。ブルーグリーンデプロイやカナリアリリースなどのパターンを考えてみましょう。</t>
+          <t>リソースを必要とするワークロードのリソースのバランスを制御するのに役立ちます。</t>
         </is>
       </c>
       <c r="E52" s="21" t="n"/>
@@ -2570,7 +2570,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>40bf5a02-ca6a-410d-9b6a-87fe75ff0873</t>
+          <t>e452f566-2a10-4119-a802-aeab44201971</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2583,12 +2583,12 @@
       <c r="B53" s="21" t="n"/>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: ミッションクリティカルなワークロードの場合は、スタンプレベルのブルー/グリーンデプロイを使用します。</t>
+          <t>ワークロードのアーキテクチャ: 意味のあるワークロードスケーリングメトリクスを使用します。</t>
         </is>
       </c>
       <c r="D53" s="21" t="inlineStr">
         <is>
-          <t>デプロイメントやテストなど、ミッションクリティカルな設計領域を自動化します。</t>
+          <t>すべてのスケール決定が CPU またはメモリのメトリクスから導き出されるわけではありません。多くの場合、スケールに関する考慮事項は、より複雑なデータ ポイントや外部のデータ ポイントから得られます。KEDA を使用して、ワークロードに固有のシグナルに基づいて意味のある自動スケール ルールセットを構築します。</t>
         </is>
       </c>
       <c r="E53" s="21" t="n"/>
@@ -2603,7 +2603,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>dec76a46-6005-4c3e-ac2c-70b7214a28ba</t>
+          <t>43df6223-dfca-447d-9b00-f4742ef18be1</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -2614,32 +2614,15 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="n"/>
       <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="inlineStr">
-        <is>
-          <t>クラスターとワークロードのアーキテクチャ: 詳細な容量計画を作成し、継続的に見直して改訂します。</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="inlineStr">
-        <is>
-          <t>容量計画を形式化した後は、クラスターのリソース使用率を継続的に観察して、容量計画を頻繁に更新する必要があります。</t>
-        </is>
-      </c>
+      <c r="C54" s="21" t="n"/>
+      <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="n"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="inlineStr">
-        <is>
-          <t>9f2cef22-f674-4702-a57a-5dcf90bf9143</t>
-        </is>
-      </c>
+      <c r="L54" s="25" t="n"/>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
@@ -2648,31 +2631,14 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="n"/>
       <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="inlineStr">
-        <is>
-          <t>クラスターのアーキテクチャ: クラスター オートスケーラーを有効にして、リソースの制約に応じてエージェント ノードの数を自動的に調整します。</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="inlineStr">
-        <is>
-          <t>AKS クラスター内のノード数を自動的にスケールアップまたはスケールダウンする機能により、効率的でコスト効率の高いクラスターを実行できます。</t>
-        </is>
-      </c>
+      <c r="C55" s="21" t="n"/>
+      <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="n"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="inlineStr">
-        <is>
-          <t>d50d653b-0d8d-44ca-8ba6-9963321d1f24</t>
-        </is>
-      </c>
+      <c r="L55" s="25" t="n"/>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
@@ -2681,31 +2647,14 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="n"/>
       <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="inlineStr">
-        <is>
-          <t>クラスターとワークロードのアーキテクチャ: ワークロードを異なるノードプールに分割し、ユーザーノードプールのスケーリングを検討します。</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="inlineStr">
-        <is>
-          <t>常に実行中のノードを必要とするシステムノードプールとは異なり、ユーザーノードプールではスケールアップまたはスケールダウンできます。</t>
-        </is>
-      </c>
+      <c r="C56" s="21" t="n"/>
+      <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="n"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="inlineStr">
-        <is>
-          <t>cd14e737-9478-4fb4-9556-586b03d5e248</t>
-        </is>
-      </c>
+      <c r="L56" s="25" t="n"/>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
@@ -2714,31 +2663,14 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="n"/>
       <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="inlineStr">
-        <is>
-          <t>ワークロード アーキテクチャ: AKS の高度なスケジューラ機能を使用します。</t>
-        </is>
-      </c>
-      <c r="D57" s="21" t="inlineStr">
-        <is>
-          <t>リソースを必要とするワークロードのリソースのバランスを制御するのに役立ちます。</t>
-        </is>
-      </c>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="n"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="inlineStr">
-        <is>
-          <t>e452f566-2a10-4119-a802-aeab44201971</t>
-        </is>
-      </c>
+      <c r="L57" s="25" t="n"/>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
@@ -2747,31 +2679,14 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="n"/>
       <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="inlineStr">
-        <is>
-          <t>ワークロードのアーキテクチャ: 意味のあるワークロードスケーリングメトリクスを使用します。</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="inlineStr">
-        <is>
-          <t>すべてのスケール決定が CPU またはメモリのメトリクスから導き出されるわけではありません。多くの場合、スケールに関する考慮事項は、より複雑なデータ ポイントや外部のデータ ポイントから得られます。KEDA を使用して、ワークロードに固有のシグナルに基づいて意味のある自動スケール ルールセットを構築します。</t>
-        </is>
-      </c>
+      <c r="C58" s="21" t="n"/>
+      <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="n"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="inlineStr">
-        <is>
-          <t>43df6223-dfca-447d-9b00-f4742ef18be1</t>
-        </is>
-      </c>
+      <c r="L58" s="25" t="n"/>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
@@ -6674,7 +6589,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F59" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
